--- a/static/download/2022/RP3_APT_TxOut_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_APT_TxOut_2022_Jan_Dec.xlsx
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44971.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -814,8 +814,7 @@
         <v>86940.0</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" ref="E6:E17" si="1">F6/D6</f>
-        <v>1.529767656</v>
+        <v>1.53</v>
       </c>
       <c r="F6" s="25">
         <v>132998.0</v>
@@ -838,8 +837,7 @@
         <v>77806.0</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" si="1"/>
-        <v>1.575122741</v>
+        <v>1.58</v>
       </c>
       <c r="F7" s="25">
         <v>122554.0</v>
@@ -862,8 +860,7 @@
         <v>178662.0</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="1"/>
-        <v>1.806606889</v>
+        <v>1.81</v>
       </c>
       <c r="F8" s="25">
         <v>322772.0</v>
@@ -886,8 +883,7 @@
         <v>48448.0</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="1"/>
-        <v>1.374731671</v>
+        <v>1.37</v>
       </c>
       <c r="F9" s="25">
         <v>66603.0</v>
@@ -910,8 +906,7 @@
         <v>56972.0</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="1"/>
-        <v>1.216702942</v>
+        <v>1.22</v>
       </c>
       <c r="F10" s="25">
         <v>69318.0</v>
@@ -934,8 +929,7 @@
         <v>67005.0</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="1"/>
-        <v>1.632684128</v>
+        <v>1.63</v>
       </c>
       <c r="F11" s="25">
         <v>109398.0</v>
@@ -958,8 +952,7 @@
         <v>132208.0</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" si="1"/>
-        <v>2.702052826</v>
+        <v>2.7</v>
       </c>
       <c r="F12" s="25">
         <v>357233.0</v>
@@ -982,8 +975,7 @@
         <v>38929.0</v>
       </c>
       <c r="E13" s="26">
-        <f t="shared" si="1"/>
-        <v>1.913894526</v>
+        <v>1.91</v>
       </c>
       <c r="F13" s="25">
         <v>74506.0</v>
@@ -1006,8 +998,7 @@
         <v>60243.0</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" si="1"/>
-        <v>2.805819763</v>
+        <v>2.81</v>
       </c>
       <c r="F14" s="25">
         <v>169031.0</v>
@@ -1030,8 +1021,7 @@
         <v>204631.0</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="1"/>
-        <v>2.76729821</v>
+        <v>2.77</v>
       </c>
       <c r="F15" s="25">
         <v>566275.0</v>
@@ -1054,8 +1044,7 @@
         <v>99749.0</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="1"/>
-        <v>5.266579114</v>
+        <v>5.27</v>
       </c>
       <c r="F16" s="25">
         <v>525336.0</v>
@@ -1078,8 +1067,7 @@
         <v>92565.0</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="1"/>
-        <v>2.367698374</v>
+        <v>2.37</v>
       </c>
       <c r="F17" s="25">
         <v>219166.0</v>
@@ -1117,8 +1105,7 @@
         <v>93495.0</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" ref="E19:E29" si="2">F19/D19</f>
-        <v>3.259789294</v>
+        <v>3.26</v>
       </c>
       <c r="F19" s="25">
         <v>304774.0</v>
@@ -1141,8 +1128,7 @@
         <v>70067.0</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="2"/>
-        <v>2.283385902</v>
+        <v>2.28</v>
       </c>
       <c r="F20" s="25">
         <v>159990.0</v>
@@ -1165,8 +1151,7 @@
         <v>80419.0</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="2"/>
-        <v>1.515699026</v>
+        <v>1.52</v>
       </c>
       <c r="F21" s="25">
         <v>121891.0</v>
@@ -1189,8 +1174,7 @@
         <v>55991.0</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="2"/>
-        <v>2.030272722</v>
+        <v>2.03</v>
       </c>
       <c r="F22" s="25">
         <v>113677.0</v>
@@ -1213,8 +1197,7 @@
         <v>41448.0</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="2"/>
-        <v>1.4873094</v>
+        <v>1.49</v>
       </c>
       <c r="F23" s="25">
         <v>61646.0</v>
@@ -1237,8 +1220,7 @@
         <v>137593.0</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" si="2"/>
-        <v>3.599950579</v>
+        <v>3.6</v>
       </c>
       <c r="F24" s="25">
         <v>495328.0</v>
@@ -1261,8 +1243,7 @@
         <v>163149.0</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="2"/>
-        <v>2.565219523</v>
+        <v>2.57</v>
       </c>
       <c r="F25" s="25">
         <v>418513.0</v>
@@ -1285,8 +1266,7 @@
         <v>67329.0</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="2"/>
-        <v>2.557738864</v>
+        <v>2.56</v>
       </c>
       <c r="F26" s="25">
         <v>172210.0</v>
@@ -1309,8 +1289,7 @@
         <v>106367.0</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="2"/>
-        <v>2.31844463</v>
+        <v>2.32</v>
       </c>
       <c r="F27" s="25">
         <v>246606.0</v>
@@ -1333,8 +1312,7 @@
         <v>31551.0</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="2"/>
-        <v>0.6690120757</v>
+        <v>0.67</v>
       </c>
       <c r="F28" s="25">
         <v>21108.0</v>
@@ -1357,8 +1335,7 @@
         <v>37895.0</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="2"/>
-        <v>0.7133922681</v>
+        <v>0.71</v>
       </c>
       <c r="F29" s="25">
         <v>27034.0</v>
@@ -1396,8 +1373,7 @@
         <v>66275.0</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" ref="E31:E47" si="3">F31/D31</f>
-        <v>1.299177669</v>
+        <v>1.3</v>
       </c>
       <c r="F31" s="25">
         <v>86103.0</v>
@@ -1420,8 +1396,7 @@
         <v>189649.0</v>
       </c>
       <c r="E32" s="26">
-        <f t="shared" si="3"/>
-        <v>3.570691119</v>
+        <v>3.57</v>
       </c>
       <c r="F32" s="25">
         <v>677178.0</v>
@@ -1444,8 +1419,7 @@
         <v>98084.0</v>
       </c>
       <c r="E33" s="26">
-        <f t="shared" si="3"/>
-        <v>1.887208923</v>
+        <v>1.89</v>
       </c>
       <c r="F33" s="25">
         <v>185105.0</v>
@@ -1468,8 +1442,7 @@
         <v>102897.0</v>
       </c>
       <c r="E34" s="26">
-        <f t="shared" si="3"/>
-        <v>3.178771004</v>
+        <v>3.18</v>
       </c>
       <c r="F34" s="25">
         <v>327086.0</v>
@@ -1492,8 +1465,7 @@
         <v>45165.0</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="3"/>
-        <v>1.40276763</v>
+        <v>1.4</v>
       </c>
       <c r="F35" s="25">
         <v>63356.0</v>
@@ -1516,8 +1488,7 @@
         <v>88537.0</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" si="3"/>
-        <v>3.412720106</v>
+        <v>3.41</v>
       </c>
       <c r="F36" s="25">
         <v>302152.0</v>
@@ -1540,8 +1511,7 @@
         <v>44224.0</v>
       </c>
       <c r="E37" s="26">
-        <f t="shared" si="3"/>
-        <v>1.765127533</v>
+        <v>1.77</v>
       </c>
       <c r="F37" s="25">
         <v>78061.0</v>
@@ -1564,8 +1534,7 @@
         <v>49334.0</v>
       </c>
       <c r="E38" s="26">
-        <f t="shared" si="3"/>
-        <v>2.89058256</v>
+        <v>2.89</v>
       </c>
       <c r="F38" s="25">
         <v>142604.0</v>
@@ -1588,8 +1557,7 @@
         <v>38683.0</v>
       </c>
       <c r="E39" s="26">
-        <f t="shared" si="3"/>
-        <v>1.834914562</v>
+        <v>1.83</v>
       </c>
       <c r="F39" s="25">
         <v>70980.0</v>
@@ -1612,8 +1580,7 @@
         <v>100181.0</v>
       </c>
       <c r="E40" s="26">
-        <f t="shared" si="3"/>
-        <v>5.002186043</v>
+        <v>5.0</v>
       </c>
       <c r="F40" s="25">
         <v>501124.0</v>
@@ -1636,8 +1603,7 @@
         <v>46322.0</v>
       </c>
       <c r="E41" s="26">
-        <f t="shared" si="3"/>
-        <v>1.897823928</v>
+        <v>1.9</v>
       </c>
       <c r="F41" s="25">
         <v>87911.0</v>
@@ -1660,8 +1626,7 @@
         <v>100898.0</v>
       </c>
       <c r="E42" s="26">
-        <f t="shared" si="3"/>
-        <v>2.090001784</v>
+        <v>2.09</v>
       </c>
       <c r="F42" s="25">
         <v>210877.0</v>
@@ -1684,8 +1649,7 @@
         <v>43550.0</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" si="3"/>
-        <v>1.606153846</v>
+        <v>1.61</v>
       </c>
       <c r="F43" s="25">
         <v>69948.0</v>
@@ -1708,8 +1672,7 @@
         <v>96688.0</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="3"/>
-        <v>3.180218848</v>
+        <v>3.18</v>
       </c>
       <c r="F44" s="25">
         <v>307489.0</v>
@@ -1732,8 +1695,7 @@
         <v>46268.0</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="3"/>
-        <v>2.076791735</v>
+        <v>2.08</v>
       </c>
       <c r="F45" s="25">
         <v>96089.0</v>
@@ -1756,8 +1718,7 @@
         <v>79680.0</v>
       </c>
       <c r="E46" s="26">
-        <f t="shared" si="3"/>
-        <v>1.879781627</v>
+        <v>1.88</v>
       </c>
       <c r="F46" s="25">
         <v>149781.0</v>
@@ -1780,8 +1741,7 @@
         <v>103109.0</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" si="3"/>
-        <v>2.488987382</v>
+        <v>2.49</v>
       </c>
       <c r="F47" s="25">
         <v>256637.0</v>
